--- a/myess/static/files/gs_insert_template.xlsx
+++ b/myess/static/files/gs_insert_template.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11970"/>
+    <workbookView windowWidth="14340" windowHeight="12015" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +26,62 @@
     <t>是否外包</t>
   </si>
   <si>
-    <t>任务ID(只写数字)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只写数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>日期(xxxx-xx-xx)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(xxxx-xx-xx)</t>
+    </r>
   </si>
   <si>
     <t>任务类型</t>
@@ -50,22 +103,65 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,36 +170,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,6 +197,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -124,88 +265,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -223,13 +293,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,49 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,97 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,30 +478,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,15 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -508,153 +545,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -671,19 +731,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1011,15 +1071,18 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="4" max="4" width="9.06666666666667" style="1"/>
-    <col min="5" max="5" width="10" style="2"/>
-    <col min="7" max="8" width="9.06666666666667" style="1"/>
-    <col min="9" max="9" width="9.06666666666667" style="3"/>
+    <col min="1" max="3" width="10.4583333333333"/>
+    <col min="4" max="4" width="16.625" style="1"/>
+    <col min="5" max="5" width="15.8666666666667" style="2"/>
+    <col min="6" max="6" width="10.4583333333333"/>
+    <col min="7" max="8" width="10.4583333333333" style="1"/>
+    <col min="9" max="9" width="10.4583333333333" style="3"/>
+    <col min="10" max="1025" width="10.4583333333333"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1052,19 +1115,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"标注,试标,筛选,审核"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>"杂物,脏污,行人扶梯一米栏,xfy-2D-LPCD,50-xfy-person_orient,红绿灯,S线数据,室内可通行,75车库车辆行人,111室外车辆行人"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
-      <formula1>"杂物,脏污,行人扶梯一米栏,xfy-2D-LPCD,红绿灯,S线数据,室内可通行,75车库车辆行人,111室外车辆行人"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>"否,是"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 C1 F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1"/>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/myess/static/files/gs_insert_template.xlsx
+++ b/myess/static/files/gs_insert_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="14340" windowHeight="12015" tabRatio="993"/>
+    <workbookView windowWidth="28800" windowHeight="11970" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,11 +102,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -123,6 +123,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -131,16 +176,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,39 +197,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,9 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,66 +244,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,25 +293,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,13 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,133 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,15 +478,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -505,27 +496,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -546,20 +520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,143 +549,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1080,7 +1080,8 @@
     <col min="4" max="4" width="16.625" style="1"/>
     <col min="5" max="5" width="15.8666666666667" style="2"/>
     <col min="6" max="6" width="10.4583333333333"/>
-    <col min="7" max="8" width="10.4583333333333" style="1"/>
+    <col min="7" max="7" width="10.4583333333333" style="1"/>
+    <col min="8" max="8" width="10.4583333333333" style="2"/>
     <col min="9" max="9" width="10.4583333333333" style="3"/>
     <col min="10" max="1025" width="10.4583333333333"/>
   </cols>
@@ -1107,7 +1108,7 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -1116,11 +1117,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"标注,审核,筛选,属性标注,视频标注"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
-      <formula1>"杂物,脏污,行人扶梯一米栏,xfy-2D-LPCD,50-xfy-person_orient,红绿灯,S线数据,室内可通行,75车库车辆行人,111室外车辆行人"</formula1>
+      <formula1>"杂物,脏污,行人扶梯一米栏,xfy-2D-LPCD,50-xfy-person_orient,红绿灯,S线数据,室内可通行,75车库车辆行人,111室外车辆行人,AIOT清洁行为识别,75车库漏水检测"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 F1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 C1 F1"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
